--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_key|权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +265,9 @@
           <cell r="B2">
             <v>1</v>
           </cell>
-          <cell r="C2"/>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -259,7 +276,9 @@
           <cell r="B3">
             <v>2</v>
           </cell>
-          <cell r="C3"/>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -268,7 +287,9 @@
           <cell r="B4">
             <v>3</v>
           </cell>
-          <cell r="C4"/>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
@@ -277,7 +298,9 @@
           <cell r="B5">
             <v>4</v>
           </cell>
-          <cell r="C5"/>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -286,7 +309,9 @@
           <cell r="B6">
             <v>5</v>
           </cell>
-          <cell r="C6"/>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -295,7 +320,9 @@
           <cell r="B7">
             <v>6</v>
           </cell>
-          <cell r="C7"/>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -304,7 +331,9 @@
           <cell r="B8">
             <v>7</v>
           </cell>
-          <cell r="C8"/>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -313,7 +342,9 @@
           <cell r="B9">
             <v>8</v>
           </cell>
-          <cell r="C9"/>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -322,7 +353,9 @@
           <cell r="B10">
             <v>9</v>
           </cell>
-          <cell r="C10"/>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
@@ -331,7 +364,9 @@
           <cell r="B11">
             <v>10</v>
           </cell>
-          <cell r="C11"/>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
@@ -340,7 +375,9 @@
           <cell r="B12">
             <v>11</v>
           </cell>
-          <cell r="C12"/>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
@@ -349,7 +386,9 @@
           <cell r="B13">
             <v>12</v>
           </cell>
-          <cell r="C13"/>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
@@ -358,7 +397,9 @@
           <cell r="B14">
             <v>13</v>
           </cell>
-          <cell r="C14"/>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
@@ -367,7 +408,9 @@
           <cell r="B15">
             <v>14</v>
           </cell>
-          <cell r="C15"/>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -376,7 +419,9 @@
           <cell r="B16">
             <v>15</v>
           </cell>
-          <cell r="C16"/>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -385,7 +430,9 @@
           <cell r="B17">
             <v>16</v>
           </cell>
-          <cell r="C17"/>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
@@ -394,7 +441,9 @@
           <cell r="B18">
             <v>17</v>
           </cell>
-          <cell r="C18"/>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -403,7 +452,9 @@
           <cell r="B19">
             <v>18</v>
           </cell>
-          <cell r="C19"/>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
@@ -1534,7 +1585,9 @@
           <cell r="B122">
             <v>20</v>
           </cell>
-          <cell r="C122"/>
+          <cell r="C122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="A123">
@@ -1543,7 +1596,9 @@
           <cell r="B123">
             <v>21</v>
           </cell>
-          <cell r="C123"/>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
         </row>
         <row r="124">
           <cell r="A124">
@@ -1552,7 +1607,9 @@
           <cell r="B124">
             <v>28</v>
           </cell>
-          <cell r="C124"/>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125">
@@ -2505,20 +2562,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2528,8 +2586,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>[1]use_fish!$A2</f>
         <v>1</v>
@@ -2543,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>[1]use_fish!$A3</f>
         <v>2</v>
@@ -2557,7 +2618,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>[1]use_fish!$A4</f>
         <v>3</v>
@@ -2571,7 +2632,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f>[1]use_fish!$A5</f>
         <v>4</v>
@@ -2585,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f>[1]use_fish!$A6</f>
         <v>5</v>
@@ -2599,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f>[1]use_fish!$A7</f>
         <v>6</v>
@@ -2613,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f>[1]use_fish!$A8</f>
         <v>7</v>
@@ -2627,7 +2688,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f>[1]use_fish!$A9</f>
         <v>8</v>
@@ -2641,7 +2702,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f>[1]use_fish!$A10</f>
         <v>9</v>
@@ -2655,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>[1]use_fish!$A11</f>
         <v>10</v>
@@ -2669,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f>[1]use_fish!$A12</f>
         <v>11</v>
@@ -2683,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>[1]use_fish!$A13</f>
         <v>12</v>
@@ -2697,7 +2758,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>[1]use_fish!$A14</f>
         <v>13</v>
@@ -2711,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>[1]use_fish!$A15</f>
         <v>14</v>
@@ -2725,7 +2786,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>[1]use_fish!$A16</f>
         <v>15</v>
@@ -4528,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <f>[1]use_fish!$A145</f>
         <v>144</v>
@@ -4542,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4555,7 +4616,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4568,7 +4629,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4581,7 +4642,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4594,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4606,8 +4667,11 @@
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4619,8 +4683,11 @@
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -4632,8 +4699,11 @@
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -4645,8 +4715,11 @@
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -4658,8 +4731,11 @@
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -4671,8 +4747,11 @@
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -4684,8 +4763,11 @@
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -4697,12 +4779,15 @@
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
     </row>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -226,14 +232,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2595,11 +2607,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4818,103 +4830,186 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="11">
         <v>6</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="11">
         <v>7</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="11">
         <v>8</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="11">
         <v>9</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="11">
         <v>10</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="13"/>
+    </row>
+    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="12">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>6</v>
+      </c>
+      <c r="C168" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="12">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>7</v>
+      </c>
+      <c r="C169" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="12">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>8</v>
+      </c>
+      <c r="C170" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="12">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>9</v>
+      </c>
+      <c r="C171" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="12">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>10</v>
+      </c>
+      <c r="C172" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="12">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>34</v>
+      </c>
+      <c r="C173" s="13"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="12">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>34</v>
+      </c>
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="12">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>34</v>
+      </c>
+      <c r="C175" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -164,7 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -223,14 +223,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2596,7 +2605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4815,128 +4824,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="12">
         <v>6</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="12">
         <v>7</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="12">
         <v>8</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+    <row r="161" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="12">
         <v>9</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+    <row r="162" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="12">
         <v>10</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+    <row r="163" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="10">
-        <v>22</v>
-      </c>
-      <c r="C163" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="B163" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="10">
-        <v>23</v>
-      </c>
-      <c r="C164" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="B164" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="10">
-        <v>24</v>
-      </c>
-      <c r="C165" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
-        <v>165</v>
-      </c>
-      <c r="B166" s="10">
-        <v>25</v>
-      </c>
-      <c r="C166" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
-        <v>166</v>
-      </c>
-      <c r="B167" s="10">
+      <c r="B165" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="8">
-        <v>167</v>
-      </c>
-      <c r="B168" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="8">
-        <v>168</v>
-      </c>
-      <c r="B169" s="10">
-        <v>32</v>
-      </c>
+    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -164,7 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -232,14 +232,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2604,8 +2598,8 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4824,101 +4818,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="11">
+    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="9">
         <v>6</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="11">
+    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="9">
         <v>7</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="11">
+    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="9">
         <v>8</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="11">
+    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="9">
         <v>9</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="11">
+    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="9">
         <v>10</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11">
+    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="11">
+    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8">
         <v>163</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="11">
+    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
-      <c r="B166" s="9"/>
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="11">
+        <v>33</v>
+      </c>
     </row>
     <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
-    </row>
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -245,6 +251,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2607,11 +2622,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5010,6 +5025,88 @@
       </c>
       <c r="C175" s="13"/>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>175</v>
+      </c>
+      <c r="B176" s="15">
+        <v>6</v>
+      </c>
+      <c r="C176" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>176</v>
+      </c>
+      <c r="B177" s="15">
+        <v>7</v>
+      </c>
+      <c r="C177" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>177</v>
+      </c>
+      <c r="B178" s="15">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>178</v>
+      </c>
+      <c r="B179" s="15">
+        <v>9</v>
+      </c>
+      <c r="C179" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>179</v>
+      </c>
+      <c r="B180" s="15">
+        <v>10</v>
+      </c>
+      <c r="C180" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>180</v>
+      </c>
+      <c r="B181" s="15">
+        <v>35</v>
+      </c>
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="14">
+        <v>181</v>
+      </c>
+      <c r="B182" s="15">
+        <v>35</v>
+      </c>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="14">
+        <v>182</v>
+      </c>
+      <c r="B183" s="15">
+        <v>35</v>
+      </c>
+      <c r="C183" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +159,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -226,40 +220,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,2074 +255,2318 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="profit"/>
-      <sheetName val="random_wave"/>
-      <sheetName val="wave"/>
-      <sheetName val="image_type_cfg"/>
-      <sheetName val="image_cfg"/>
       <sheetName val="group"/>
       <sheetName val="use_fish"/>
       <sheetName val="activity"/>
       <sheetName val="box_fish_activity"/>
       <sheetName val="base_fish"/>
       <sheetName val="path"/>
-      <sheetName val="laser"/>
-      <sheetName val="gun"/>
       <sheetName val="skill"/>
       <sheetName val="dead_mode"/>
       <sheetName val="box_fish_award"/>
+      <sheetName val="summon_fish"/>
+      <sheetName val="profit"/>
+      <sheetName val="random_wave"/>
+      <sheetName val="wave"/>
+      <sheetName val="image_type_cfg"/>
+      <sheetName val="image_cfg"/>
+      <sheetName val="laser"/>
+      <sheetName val="gun"/>
       <sheetName val="match_award"/>
       <sheetName val="ue_event_map"/>
-      <sheetName val="summon_fish"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>act_id|活动ID</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>8</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>10</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>11</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>12</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>13</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>14</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>15</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>16</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>17</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>6</v>
+          </cell>
+          <cell r="C20">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>6</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>6</v>
+          </cell>
+          <cell r="C22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+          <cell r="C23">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>6</v>
+          </cell>
+          <cell r="C24">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>7</v>
+          </cell>
+          <cell r="C25">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>7</v>
+          </cell>
+          <cell r="C26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>7</v>
+          </cell>
+          <cell r="C27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>7</v>
+          </cell>
+          <cell r="C28">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>7</v>
+          </cell>
+          <cell r="C29">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>8</v>
+          </cell>
+          <cell r="C30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>8</v>
+          </cell>
+          <cell r="C31">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="B32">
+            <v>8</v>
+          </cell>
+          <cell r="C32">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="B33">
+            <v>8</v>
+          </cell>
+          <cell r="C33">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="B34">
+            <v>8</v>
+          </cell>
+          <cell r="C34">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="B35">
+            <v>8</v>
+          </cell>
+          <cell r="C35">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>8</v>
+          </cell>
+          <cell r="C36">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>9</v>
+          </cell>
+          <cell r="C37">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>9</v>
+          </cell>
+          <cell r="C38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>9</v>
+          </cell>
+          <cell r="C39">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>9</v>
+          </cell>
+          <cell r="C40">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>9</v>
+          </cell>
+          <cell r="C41">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>9</v>
+          </cell>
+          <cell r="C42">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>9</v>
+          </cell>
+          <cell r="C43">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>9</v>
+          </cell>
+          <cell r="C44">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="B45">
+            <v>9</v>
+          </cell>
+          <cell r="C45">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="B46">
+            <v>10</v>
+          </cell>
+          <cell r="C46">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="B47">
+            <v>10</v>
+          </cell>
+          <cell r="C47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="B48">
+            <v>10</v>
+          </cell>
+          <cell r="C48">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="B49">
+            <v>10</v>
+          </cell>
+          <cell r="C49">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="B50">
+            <v>10</v>
+          </cell>
+          <cell r="C50">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="B51">
+            <v>10</v>
+          </cell>
+          <cell r="C51">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>10</v>
+          </cell>
+          <cell r="C52">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>10</v>
+          </cell>
+          <cell r="C53">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>10</v>
+          </cell>
+          <cell r="C54">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>10</v>
+          </cell>
+          <cell r="C55">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>11</v>
+          </cell>
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>11</v>
+          </cell>
+          <cell r="C57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>11</v>
+          </cell>
+          <cell r="C58">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>11</v>
+          </cell>
+          <cell r="C59">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>11</v>
+          </cell>
+          <cell r="C60">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>11</v>
+          </cell>
+          <cell r="C61">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>11</v>
+          </cell>
+          <cell r="C62">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>11</v>
+          </cell>
+          <cell r="C63">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>11</v>
+          </cell>
+          <cell r="C64">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>12</v>
+          </cell>
+          <cell r="C65">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>12</v>
+          </cell>
+          <cell r="C66">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>12</v>
+          </cell>
+          <cell r="C67">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>12</v>
+          </cell>
+          <cell r="C68">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>12</v>
+          </cell>
+          <cell r="C69">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>12</v>
+          </cell>
+          <cell r="C70">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>12</v>
+          </cell>
+          <cell r="C71">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>12</v>
+          </cell>
+          <cell r="C72">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>14</v>
+          </cell>
+          <cell r="C73">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>14</v>
+          </cell>
+          <cell r="C74">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>14</v>
+          </cell>
+          <cell r="C75">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>14</v>
+          </cell>
+          <cell r="C76">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>14</v>
+          </cell>
+          <cell r="C77">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>14</v>
+          </cell>
+          <cell r="C78">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>14</v>
+          </cell>
+          <cell r="C79">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>14</v>
+          </cell>
+          <cell r="C80">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>14</v>
+          </cell>
+          <cell r="C81">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>14</v>
+          </cell>
+          <cell r="C82">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+          <cell r="B83">
+            <v>15</v>
+          </cell>
+          <cell r="C83">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>15</v>
+          </cell>
+          <cell r="C84">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>15</v>
+          </cell>
+          <cell r="C85">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>15</v>
+          </cell>
+          <cell r="C86">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>15</v>
+          </cell>
+          <cell r="C87">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>15</v>
+          </cell>
+          <cell r="C88">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>15</v>
+          </cell>
+          <cell r="C89">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>15</v>
+          </cell>
+          <cell r="C90">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>15</v>
+          </cell>
+          <cell r="C91">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>91</v>
+          </cell>
+          <cell r="B92">
+            <v>15</v>
+          </cell>
+          <cell r="C92">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>92</v>
+          </cell>
+          <cell r="B93">
+            <v>16</v>
+          </cell>
+          <cell r="C93">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>93</v>
+          </cell>
+          <cell r="B94">
+            <v>16</v>
+          </cell>
+          <cell r="C94">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>94</v>
+          </cell>
+          <cell r="B95">
+            <v>16</v>
+          </cell>
+          <cell r="C95">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>95</v>
+          </cell>
+          <cell r="B96">
+            <v>16</v>
+          </cell>
+          <cell r="C96">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>96</v>
+          </cell>
+          <cell r="B97">
+            <v>16</v>
+          </cell>
+          <cell r="C97">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>97</v>
+          </cell>
+          <cell r="B98">
+            <v>16</v>
+          </cell>
+          <cell r="C98">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>98</v>
+          </cell>
+          <cell r="B99">
+            <v>16</v>
+          </cell>
+          <cell r="C99">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>99</v>
+          </cell>
+          <cell r="B100">
+            <v>16</v>
+          </cell>
+          <cell r="C100">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>100</v>
+          </cell>
+          <cell r="B101">
+            <v>16</v>
+          </cell>
+          <cell r="C101">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>101</v>
+          </cell>
+          <cell r="B102">
+            <v>16</v>
+          </cell>
+          <cell r="C102">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>102</v>
+          </cell>
+          <cell r="B103">
+            <v>3</v>
+          </cell>
+          <cell r="C103">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>103</v>
+          </cell>
+          <cell r="B104">
+            <v>4</v>
+          </cell>
+          <cell r="C104">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>104</v>
+          </cell>
+          <cell r="B105">
+            <v>5</v>
+          </cell>
+          <cell r="C105">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>105</v>
+          </cell>
+          <cell r="B106">
+            <v>6</v>
+          </cell>
+          <cell r="C106">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>106</v>
+          </cell>
+          <cell r="B107">
+            <v>7</v>
+          </cell>
+          <cell r="C107">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>107</v>
+          </cell>
+          <cell r="B108">
+            <v>8</v>
+          </cell>
+          <cell r="C108">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>108</v>
+          </cell>
+          <cell r="B109">
+            <v>9</v>
+          </cell>
+          <cell r="C109">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>109</v>
+          </cell>
+          <cell r="B110">
+            <v>10</v>
+          </cell>
+          <cell r="C110">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>110</v>
+          </cell>
+          <cell r="B111">
+            <v>3</v>
+          </cell>
+          <cell r="C111">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>111</v>
+          </cell>
+          <cell r="B112">
+            <v>4</v>
+          </cell>
+          <cell r="C112">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>112</v>
+          </cell>
+          <cell r="B113">
+            <v>5</v>
+          </cell>
+          <cell r="C113">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>113</v>
+          </cell>
+          <cell r="B114">
+            <v>6</v>
+          </cell>
+          <cell r="C114">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>114</v>
+          </cell>
+          <cell r="B115">
+            <v>7</v>
+          </cell>
+          <cell r="C115">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>115</v>
+          </cell>
+          <cell r="B116">
+            <v>8</v>
+          </cell>
+          <cell r="C116">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>116</v>
+          </cell>
+          <cell r="B117">
+            <v>9</v>
+          </cell>
+          <cell r="C117">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>117</v>
+          </cell>
+          <cell r="B118">
+            <v>10</v>
+          </cell>
+          <cell r="C118">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>118</v>
+          </cell>
+          <cell r="B119">
+            <v>19</v>
+          </cell>
+          <cell r="C119">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>119</v>
+          </cell>
+          <cell r="B120">
+            <v>19</v>
+          </cell>
+          <cell r="C120">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>120</v>
+          </cell>
+          <cell r="B121">
+            <v>19</v>
+          </cell>
+          <cell r="C121">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>121</v>
+          </cell>
+          <cell r="B122">
+            <v>20</v>
+          </cell>
+          <cell r="C122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>122</v>
+          </cell>
+          <cell r="B123">
+            <v>21</v>
+          </cell>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>123</v>
+          </cell>
+          <cell r="B124">
+            <v>28</v>
+          </cell>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>124</v>
+          </cell>
+          <cell r="B125">
+            <v>1</v>
+          </cell>
+          <cell r="C125">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>125</v>
+          </cell>
+          <cell r="B126">
+            <v>9</v>
+          </cell>
+          <cell r="C126">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>126</v>
+          </cell>
+          <cell r="B127">
+            <v>10</v>
+          </cell>
+          <cell r="C127">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>127</v>
+          </cell>
+          <cell r="B128">
+            <v>11</v>
+          </cell>
+          <cell r="C128">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>128</v>
+          </cell>
+          <cell r="B129">
+            <v>12</v>
+          </cell>
+          <cell r="C129">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>129</v>
+          </cell>
+          <cell r="B130">
+            <v>6</v>
+          </cell>
+          <cell r="C130">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>130</v>
+          </cell>
+          <cell r="B131">
+            <v>7</v>
+          </cell>
+          <cell r="C131">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>131</v>
+          </cell>
+          <cell r="B132">
+            <v>8</v>
+          </cell>
+          <cell r="C132">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>132</v>
+          </cell>
+          <cell r="B133">
+            <v>9</v>
+          </cell>
+          <cell r="C133">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>133</v>
+          </cell>
+          <cell r="B134">
+            <v>10</v>
+          </cell>
+          <cell r="C134">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>134</v>
+          </cell>
+          <cell r="B135">
+            <v>11</v>
+          </cell>
+          <cell r="C135">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>135</v>
+          </cell>
+          <cell r="B136">
+            <v>12</v>
+          </cell>
+          <cell r="C136">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>136</v>
+          </cell>
+          <cell r="B137">
+            <v>8</v>
+          </cell>
+          <cell r="C137">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>137</v>
+          </cell>
+          <cell r="B138">
+            <v>9</v>
+          </cell>
+          <cell r="C138">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>138</v>
+          </cell>
+          <cell r="B139">
+            <v>10</v>
+          </cell>
+          <cell r="C139">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>139</v>
+          </cell>
+          <cell r="B140">
+            <v>11</v>
+          </cell>
+          <cell r="C140">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>140</v>
+          </cell>
+          <cell r="B141">
+            <v>12</v>
+          </cell>
+          <cell r="C141">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>141</v>
+          </cell>
+          <cell r="B142">
+            <v>29</v>
+          </cell>
+          <cell r="C142">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>142</v>
+          </cell>
+          <cell r="B143">
+            <v>29</v>
+          </cell>
+          <cell r="C143">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>143</v>
+          </cell>
+          <cell r="B144">
+            <v>29</v>
+          </cell>
+          <cell r="C144">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>144</v>
+          </cell>
+          <cell r="B145">
+            <v>29</v>
+          </cell>
+          <cell r="C145">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>145</v>
+          </cell>
+          <cell r="B146">
+            <v>30</v>
+          </cell>
+          <cell r="C146">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>146</v>
+          </cell>
+          <cell r="B147">
+            <v>30</v>
+          </cell>
+          <cell r="C147">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>147</v>
+          </cell>
+          <cell r="B148">
+            <v>30</v>
+          </cell>
+          <cell r="C148">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>148</v>
+          </cell>
+          <cell r="B149">
+            <v>30</v>
+          </cell>
+          <cell r="C149">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>149</v>
+          </cell>
+          <cell r="B150">
+            <v>31</v>
+          </cell>
+          <cell r="C150">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>150</v>
+          </cell>
+          <cell r="B151">
+            <v>31</v>
+          </cell>
+          <cell r="C151">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>151</v>
+          </cell>
+          <cell r="B152">
+            <v>31</v>
+          </cell>
+          <cell r="C152">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>152</v>
+          </cell>
+          <cell r="B153">
+            <v>5</v>
+          </cell>
+          <cell r="C153">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>153</v>
+          </cell>
+          <cell r="B154">
+            <v>6</v>
+          </cell>
+          <cell r="C154">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>154</v>
+          </cell>
+          <cell r="B155">
+            <v>7</v>
+          </cell>
+          <cell r="C155">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>155</v>
+          </cell>
+          <cell r="B156">
+            <v>8</v>
+          </cell>
+          <cell r="C156">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>156</v>
+          </cell>
+          <cell r="B157">
+            <v>9</v>
+          </cell>
+          <cell r="C157">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>157</v>
+          </cell>
+          <cell r="B158">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>158</v>
+          </cell>
+          <cell r="B159">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>159</v>
+          </cell>
+          <cell r="B160">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>160</v>
+          </cell>
+          <cell r="B161">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>161</v>
+          </cell>
+          <cell r="B162">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>162</v>
+          </cell>
+          <cell r="B163">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>163</v>
+          </cell>
+          <cell r="B164">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>164</v>
+          </cell>
+          <cell r="B165">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>165</v>
+          </cell>
+          <cell r="B166">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>166</v>
+          </cell>
+          <cell r="B167">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>167</v>
+          </cell>
+          <cell r="B168">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>168</v>
+          </cell>
+          <cell r="B169">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>169</v>
+          </cell>
+          <cell r="B170">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>170</v>
+          </cell>
+          <cell r="B171">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>171</v>
+          </cell>
+          <cell r="B172">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>172</v>
+          </cell>
+          <cell r="B173">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>173</v>
+          </cell>
+          <cell r="B174">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>174</v>
+          </cell>
+          <cell r="B175">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>175</v>
+          </cell>
+          <cell r="B176">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>176</v>
+          </cell>
+          <cell r="B177">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>177</v>
+          </cell>
+          <cell r="B178">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>178</v>
+          </cell>
+          <cell r="B179">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>179</v>
+          </cell>
+          <cell r="B180">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>180</v>
+          </cell>
+          <cell r="B181">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>181</v>
+          </cell>
+          <cell r="B182">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>182</v>
+          </cell>
+          <cell r="B183">
+            <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|编号</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>acti_type|活动类型</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>show|显隐1显0隐</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>5</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>5</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>7</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>7</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>8</v>
+          </cell>
+          <cell r="D14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>8</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>9</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>9</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>10</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>17</v>
+          </cell>
+          <cell r="D20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>19</v>
+          </cell>
+          <cell r="D21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>20</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>20</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>20</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>20</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>26</v>
+          </cell>
+          <cell r="D26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>27</v>
+          </cell>
+          <cell r="D27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>9</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>9</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>9</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>9</v>
+          </cell>
+          <cell r="D31">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>act_id|活动ID</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>8</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>9</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>11</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>12</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>13</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>14</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>15</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>16</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>17</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>6</v>
-          </cell>
-          <cell r="C20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>6</v>
-          </cell>
-          <cell r="C21">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>6</v>
-          </cell>
-          <cell r="C22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>6</v>
-          </cell>
-          <cell r="C24">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>7</v>
-          </cell>
-          <cell r="C25">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>7</v>
-          </cell>
-          <cell r="C26">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>7</v>
-          </cell>
-          <cell r="C27">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>7</v>
-          </cell>
-          <cell r="C28">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>7</v>
-          </cell>
-          <cell r="C29">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>8</v>
-          </cell>
-          <cell r="C30">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>8</v>
-          </cell>
-          <cell r="C31">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="B32">
-            <v>8</v>
-          </cell>
-          <cell r="C32">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="B33">
-            <v>8</v>
-          </cell>
-          <cell r="C33">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="B34">
-            <v>8</v>
-          </cell>
-          <cell r="C34">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="B35">
-            <v>8</v>
-          </cell>
-          <cell r="C35">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="B36">
-            <v>8</v>
-          </cell>
-          <cell r="C36">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="B37">
-            <v>9</v>
-          </cell>
-          <cell r="C37">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="B38">
-            <v>9</v>
-          </cell>
-          <cell r="C38">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="B39">
-            <v>9</v>
-          </cell>
-          <cell r="C39">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="B40">
-            <v>9</v>
-          </cell>
-          <cell r="C40">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="B41">
-            <v>9</v>
-          </cell>
-          <cell r="C41">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="B42">
-            <v>9</v>
-          </cell>
-          <cell r="C42">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="B43">
-            <v>9</v>
-          </cell>
-          <cell r="C43">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="B44">
-            <v>9</v>
-          </cell>
-          <cell r="C44">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="B45">
-            <v>9</v>
-          </cell>
-          <cell r="C45">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="B46">
-            <v>10</v>
-          </cell>
-          <cell r="C46">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="B47">
-            <v>10</v>
-          </cell>
-          <cell r="C47">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="B48">
-            <v>10</v>
-          </cell>
-          <cell r="C48">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="B49">
-            <v>10</v>
-          </cell>
-          <cell r="C49">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="B50">
-            <v>10</v>
-          </cell>
-          <cell r="C50">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="B51">
-            <v>10</v>
-          </cell>
-          <cell r="C51">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="B52">
-            <v>10</v>
-          </cell>
-          <cell r="C52">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="B53">
-            <v>10</v>
-          </cell>
-          <cell r="C53">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="B54">
-            <v>10</v>
-          </cell>
-          <cell r="C54">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="B55">
-            <v>10</v>
-          </cell>
-          <cell r="C55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="B56">
-            <v>11</v>
-          </cell>
-          <cell r="C56">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="B57">
-            <v>11</v>
-          </cell>
-          <cell r="C57">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="B58">
-            <v>11</v>
-          </cell>
-          <cell r="C58">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="B59">
-            <v>11</v>
-          </cell>
-          <cell r="C59">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="B60">
-            <v>11</v>
-          </cell>
-          <cell r="C60">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="B61">
-            <v>11</v>
-          </cell>
-          <cell r="C61">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="B62">
-            <v>11</v>
-          </cell>
-          <cell r="C62">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="B63">
-            <v>11</v>
-          </cell>
-          <cell r="C63">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="B64">
-            <v>11</v>
-          </cell>
-          <cell r="C64">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="B65">
-            <v>12</v>
-          </cell>
-          <cell r="C65">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="B66">
-            <v>12</v>
-          </cell>
-          <cell r="C66">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="B67">
-            <v>12</v>
-          </cell>
-          <cell r="C67">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="B68">
-            <v>12</v>
-          </cell>
-          <cell r="C68">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="B69">
-            <v>12</v>
-          </cell>
-          <cell r="C69">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="B70">
-            <v>12</v>
-          </cell>
-          <cell r="C70">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="B71">
-            <v>12</v>
-          </cell>
-          <cell r="C71">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="B72">
-            <v>12</v>
-          </cell>
-          <cell r="C72">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="B73">
-            <v>14</v>
-          </cell>
-          <cell r="C73">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="B74">
-            <v>14</v>
-          </cell>
-          <cell r="C74">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="B75">
-            <v>14</v>
-          </cell>
-          <cell r="C75">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="B76">
-            <v>14</v>
-          </cell>
-          <cell r="C76">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="B77">
-            <v>14</v>
-          </cell>
-          <cell r="C77">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="B78">
-            <v>14</v>
-          </cell>
-          <cell r="C78">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="B79">
-            <v>14</v>
-          </cell>
-          <cell r="C79">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="B80">
-            <v>14</v>
-          </cell>
-          <cell r="C80">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="B81">
-            <v>14</v>
-          </cell>
-          <cell r="C81">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="B82">
-            <v>14</v>
-          </cell>
-          <cell r="C82">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="B83">
-            <v>15</v>
-          </cell>
-          <cell r="C83">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="B84">
-            <v>15</v>
-          </cell>
-          <cell r="C84">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="B85">
-            <v>15</v>
-          </cell>
-          <cell r="C85">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="B86">
-            <v>15</v>
-          </cell>
-          <cell r="C86">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="B87">
-            <v>15</v>
-          </cell>
-          <cell r="C87">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="B88">
-            <v>15</v>
-          </cell>
-          <cell r="C88">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="B89">
-            <v>15</v>
-          </cell>
-          <cell r="C89">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="B90">
-            <v>15</v>
-          </cell>
-          <cell r="C90">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="B91">
-            <v>15</v>
-          </cell>
-          <cell r="C91">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="B92">
-            <v>15</v>
-          </cell>
-          <cell r="C92">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="B93">
-            <v>16</v>
-          </cell>
-          <cell r="C93">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="B94">
-            <v>16</v>
-          </cell>
-          <cell r="C94">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="B95">
-            <v>16</v>
-          </cell>
-          <cell r="C95">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="B96">
-            <v>16</v>
-          </cell>
-          <cell r="C96">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="B97">
-            <v>16</v>
-          </cell>
-          <cell r="C97">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="B98">
-            <v>16</v>
-          </cell>
-          <cell r="C98">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="B99">
-            <v>16</v>
-          </cell>
-          <cell r="C99">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="B100">
-            <v>16</v>
-          </cell>
-          <cell r="C100">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="B101">
-            <v>16</v>
-          </cell>
-          <cell r="C101">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="B102">
-            <v>16</v>
-          </cell>
-          <cell r="C102">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="B103">
-            <v>3</v>
-          </cell>
-          <cell r="C103">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>103</v>
-          </cell>
-          <cell r="B104">
-            <v>4</v>
-          </cell>
-          <cell r="C104">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>104</v>
-          </cell>
-          <cell r="B105">
-            <v>5</v>
-          </cell>
-          <cell r="C105">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>105</v>
-          </cell>
-          <cell r="B106">
-            <v>6</v>
-          </cell>
-          <cell r="C106">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>106</v>
-          </cell>
-          <cell r="B107">
-            <v>7</v>
-          </cell>
-          <cell r="C107">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>107</v>
-          </cell>
-          <cell r="B108">
-            <v>8</v>
-          </cell>
-          <cell r="C108">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>108</v>
-          </cell>
-          <cell r="B109">
-            <v>9</v>
-          </cell>
-          <cell r="C109">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>109</v>
-          </cell>
-          <cell r="B110">
-            <v>10</v>
-          </cell>
-          <cell r="C110">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>110</v>
-          </cell>
-          <cell r="B111">
-            <v>3</v>
-          </cell>
-          <cell r="C111">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>111</v>
-          </cell>
-          <cell r="B112">
-            <v>4</v>
-          </cell>
-          <cell r="C112">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>112</v>
-          </cell>
-          <cell r="B113">
-            <v>5</v>
-          </cell>
-          <cell r="C113">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>113</v>
-          </cell>
-          <cell r="B114">
-            <v>6</v>
-          </cell>
-          <cell r="C114">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>114</v>
-          </cell>
-          <cell r="B115">
-            <v>7</v>
-          </cell>
-          <cell r="C115">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>115</v>
-          </cell>
-          <cell r="B116">
-            <v>8</v>
-          </cell>
-          <cell r="C116">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>116</v>
-          </cell>
-          <cell r="B117">
-            <v>9</v>
-          </cell>
-          <cell r="C117">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>117</v>
-          </cell>
-          <cell r="B118">
-            <v>10</v>
-          </cell>
-          <cell r="C118">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>118</v>
-          </cell>
-          <cell r="B119">
-            <v>19</v>
-          </cell>
-          <cell r="C119">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>119</v>
-          </cell>
-          <cell r="B120">
-            <v>19</v>
-          </cell>
-          <cell r="C120">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>120</v>
-          </cell>
-          <cell r="B121">
-            <v>19</v>
-          </cell>
-          <cell r="C121">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>121</v>
-          </cell>
-          <cell r="B122">
-            <v>20</v>
-          </cell>
-          <cell r="C122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>122</v>
-          </cell>
-          <cell r="B123">
-            <v>21</v>
-          </cell>
-          <cell r="C123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>123</v>
-          </cell>
-          <cell r="B124">
-            <v>28</v>
-          </cell>
-          <cell r="C124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>124</v>
-          </cell>
-          <cell r="B125">
-            <v>1</v>
-          </cell>
-          <cell r="C125">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>125</v>
-          </cell>
-          <cell r="B126">
-            <v>9</v>
-          </cell>
-          <cell r="C126">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>126</v>
-          </cell>
-          <cell r="B127">
-            <v>10</v>
-          </cell>
-          <cell r="C127">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>127</v>
-          </cell>
-          <cell r="B128">
-            <v>11</v>
-          </cell>
-          <cell r="C128">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>128</v>
-          </cell>
-          <cell r="B129">
-            <v>12</v>
-          </cell>
-          <cell r="C129">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>129</v>
-          </cell>
-          <cell r="B130">
-            <v>6</v>
-          </cell>
-          <cell r="C130">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>130</v>
-          </cell>
-          <cell r="B131">
-            <v>7</v>
-          </cell>
-          <cell r="C131">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>131</v>
-          </cell>
-          <cell r="B132">
-            <v>8</v>
-          </cell>
-          <cell r="C132">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>132</v>
-          </cell>
-          <cell r="B133">
-            <v>9</v>
-          </cell>
-          <cell r="C133">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>133</v>
-          </cell>
-          <cell r="B134">
-            <v>10</v>
-          </cell>
-          <cell r="C134">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>134</v>
-          </cell>
-          <cell r="B135">
-            <v>11</v>
-          </cell>
-          <cell r="C135">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>135</v>
-          </cell>
-          <cell r="B136">
-            <v>12</v>
-          </cell>
-          <cell r="C136">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>136</v>
-          </cell>
-          <cell r="B137">
-            <v>8</v>
-          </cell>
-          <cell r="C137">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>137</v>
-          </cell>
-          <cell r="B138">
-            <v>9</v>
-          </cell>
-          <cell r="C138">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>138</v>
-          </cell>
-          <cell r="B139">
-            <v>10</v>
-          </cell>
-          <cell r="C139">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>139</v>
-          </cell>
-          <cell r="B140">
-            <v>11</v>
-          </cell>
-          <cell r="C140">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>140</v>
-          </cell>
-          <cell r="B141">
-            <v>12</v>
-          </cell>
-          <cell r="C141">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>141</v>
-          </cell>
-          <cell r="B142">
-            <v>29</v>
-          </cell>
-          <cell r="C142">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>142</v>
-          </cell>
-          <cell r="B143">
-            <v>29</v>
-          </cell>
-          <cell r="C143">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>143</v>
-          </cell>
-          <cell r="B144">
-            <v>29</v>
-          </cell>
-          <cell r="C144">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>144</v>
-          </cell>
-          <cell r="B145">
-            <v>29</v>
-          </cell>
-          <cell r="C145">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>30</v>
-          </cell>
-          <cell r="C146">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>30</v>
-          </cell>
-          <cell r="C147">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>30</v>
-          </cell>
-          <cell r="C148">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>30</v>
-          </cell>
-          <cell r="C149">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>31</v>
-          </cell>
-          <cell r="C150">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>31</v>
-          </cell>
-          <cell r="C151">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>31</v>
-          </cell>
-          <cell r="C152">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>5</v>
-          </cell>
-          <cell r="C153">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>6</v>
-          </cell>
-          <cell r="C154">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>7</v>
-          </cell>
-          <cell r="C155">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>8</v>
-          </cell>
-          <cell r="C156">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>9</v>
-          </cell>
-          <cell r="C157">
-            <v>30</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|编号</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>acti_type|活动类型</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>show|显隐1显0隐</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>4</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>4</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>5</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>5</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>7</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>7</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>8</v>
-          </cell>
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>8</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>9</v>
-          </cell>
-          <cell r="D16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>9</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>10</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>17</v>
-          </cell>
-          <cell r="D20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>19</v>
-          </cell>
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>20</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>20</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>20</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>20</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>26</v>
-          </cell>
-          <cell r="D26">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="D27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>9</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>9</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>9</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>9</v>
-          </cell>
-          <cell r="D31">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2625,8 +2839,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2661,9 +2875,9 @@
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C2),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,9 +2889,9 @@
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C3),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2689,9 +2903,9 @@
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C4),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2703,9 +2917,9 @@
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C5),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2717,9 +2931,9 @@
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C6),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2731,9 +2945,9 @@
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C7),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,9 +2959,9 @@
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C8),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,9 +2973,9 @@
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C9),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,9 +2987,9 @@
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C10),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,9 +3001,9 @@
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C11),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,9 +3015,9 @@
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C12),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,9 +3029,9 @@
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C13),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,9 +3043,9 @@
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C14),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,9 +3057,9 @@
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C15),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,9 +3071,9 @@
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C16),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,9 +3085,9 @@
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C17),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2885,9 +3099,9 @@
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C18),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,9 +3113,9 @@
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C19),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4338,9 +4552,9 @@
         <f>[1]use_fish!$B122</f>
         <v>20</v>
       </c>
-      <c r="C122" s="1" t="str">
+      <c r="C122" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C122),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,9 +4566,9 @@
         <f>[1]use_fish!$B123</f>
         <v>21</v>
       </c>
-      <c r="C123" s="1" t="str">
+      <c r="C123" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C123),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4366,9 +4580,9 @@
         <f>[1]use_fish!$B124</f>
         <v>28</v>
       </c>
-      <c r="C124" s="1" t="str">
+      <c r="C124" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C124),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4667,6 +4881,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
+        <f>[1]use_fish!$A146</f>
         <v>145</v>
       </c>
       <c r="B146" s="4">
@@ -4680,6 +4895,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
+        <f>[1]use_fish!$A147</f>
         <v>146</v>
       </c>
       <c r="B147" s="4">
@@ -4693,6 +4909,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
+        <f>[1]use_fish!$A148</f>
         <v>147</v>
       </c>
       <c r="B148" s="4">
@@ -4706,6 +4923,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
+        <f>[1]use_fish!$A149</f>
         <v>148</v>
       </c>
       <c r="B149" s="4">
@@ -4717,395 +4935,455 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+    <row r="150" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <f>[1]use_fish!$A150</f>
         <v>149</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="4">
         <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
-      <c r="C150" s="7" t="str">
+      <c r="C150" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <f>[1]use_fish!$A151</f>
         <v>150</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="4">
         <f>[1]use_fish!$B151</f>
         <v>31</v>
       </c>
-      <c r="C151" s="7" t="str">
+      <c r="C151" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <f>[1]use_fish!$A152</f>
         <v>151</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="4">
         <f>[1]use_fish!$B152</f>
         <v>31</v>
       </c>
-      <c r="C152" s="7" t="str">
+      <c r="C152" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+    <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <f>[1]use_fish!$A153</f>
         <v>152</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="4">
         <f>[1]use_fish!$B153</f>
         <v>5</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="5">
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+    <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <f>[1]use_fish!$A154</f>
         <v>153</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="4">
         <f>[1]use_fish!$B154</f>
         <v>6</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="5">
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <f>[1]use_fish!$A155</f>
         <v>154</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="4">
         <f>[1]use_fish!$B155</f>
         <v>7</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="5">
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <f>[1]use_fish!$A156</f>
         <v>155</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="4">
         <f>[1]use_fish!$B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="5">
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <f>[1]use_fish!$A157</f>
         <v>156</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="4">
         <f>[1]use_fish!$B157</f>
         <v>9</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="5">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="12">
+    <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <f>[1]use_fish!$A158</f>
         <v>157</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="4">
+        <f>[1]use_fish!$B158</f>
         <v>6</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="12">
+    <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <f>[1]use_fish!$A159</f>
         <v>158</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="4">
+        <f>[1]use_fish!$B159</f>
         <v>7</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="12">
+    <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <f>[1]use_fish!$A160</f>
         <v>159</v>
       </c>
-      <c r="B160" s="11">
+      <c r="B160" s="4">
+        <f>[1]use_fish!$B160</f>
         <v>8</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="12">
+    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <f>[1]use_fish!$A161</f>
         <v>160</v>
       </c>
-      <c r="B161" s="11">
+      <c r="B161" s="4">
+        <f>[1]use_fish!$B161</f>
         <v>9</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="12">
+    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <f>[1]use_fish!$A162</f>
         <v>161</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="4">
+        <f>[1]use_fish!$B162</f>
         <v>10</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="12">
+    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <f>[1]use_fish!$A163</f>
         <v>162</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="4">
+        <f>[1]use_fish!$B163</f>
         <v>32</v>
       </c>
-      <c r="C163" s="13"/>
-    </row>
-    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="12">
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <f>[1]use_fish!$A164</f>
         <v>163</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="4">
+        <f>[1]use_fish!$B164</f>
         <v>32</v>
       </c>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="12">
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <f>[1]use_fish!$A165</f>
         <v>164</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="4">
+        <f>[1]use_fish!$B165</f>
         <v>32</v>
       </c>
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <f>[1]use_fish!$A166</f>
         <v>165</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="4">
+        <f>[1]use_fish!$B166</f>
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
+    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <f>[1]use_fish!$A167</f>
         <v>166</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="4">
+        <f>[1]use_fish!$B167</f>
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="12">
+    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <f>[1]use_fish!$A168</f>
         <v>167</v>
       </c>
-      <c r="B168" s="11">
+      <c r="B168" s="4">
+        <f>[1]use_fish!$B168</f>
         <v>6</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="12">
+    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <f>[1]use_fish!$A169</f>
         <v>168</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="4">
+        <f>[1]use_fish!$B169</f>
         <v>7</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="12">
+      <c r="A170" s="3">
+        <f>[1]use_fish!$A170</f>
         <v>169</v>
       </c>
-      <c r="B170" s="11">
+      <c r="B170" s="4">
+        <f>[1]use_fish!$B170</f>
         <v>8</v>
       </c>
-      <c r="C170" s="13">
+      <c r="C170" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="12">
+      <c r="A171" s="3">
+        <f>[1]use_fish!$A171</f>
         <v>170</v>
       </c>
-      <c r="B171" s="11">
+      <c r="B171" s="4">
+        <f>[1]use_fish!$B171</f>
         <v>9</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="12">
+      <c r="A172" s="3">
+        <f>[1]use_fish!$A172</f>
         <v>171</v>
       </c>
-      <c r="B172" s="11">
+      <c r="B172" s="4">
+        <f>[1]use_fish!$B172</f>
         <v>10</v>
       </c>
-      <c r="C172" s="13">
+      <c r="C172" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="12">
+      <c r="A173" s="3">
+        <f>[1]use_fish!$A173</f>
         <v>172</v>
       </c>
-      <c r="B173" s="11">
+      <c r="B173" s="4">
+        <f>[1]use_fish!$B173</f>
         <v>34</v>
       </c>
-      <c r="C173" s="13"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="12">
+      <c r="A174" s="3">
+        <f>[1]use_fish!$A174</f>
         <v>173</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B174" s="4">
+        <f>[1]use_fish!$B174</f>
         <v>34</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="12">
+      <c r="A175" s="3">
+        <f>[1]use_fish!$A175</f>
         <v>174</v>
       </c>
-      <c r="B175" s="11">
+      <c r="B175" s="4">
+        <f>[1]use_fish!$B175</f>
         <v>34</v>
       </c>
-      <c r="C175" s="13"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+      <c r="A176" s="3">
+        <f>[1]use_fish!$A176</f>
         <v>175</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="4">
+        <f>[1]use_fish!$B176</f>
         <v>6</v>
       </c>
-      <c r="C176" s="16">
+      <c r="C176" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+      <c r="A177" s="3">
+        <f>[1]use_fish!$A177</f>
         <v>176</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="4">
+        <f>[1]use_fish!$B177</f>
         <v>7</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+      <c r="A178" s="3">
+        <f>[1]use_fish!$A178</f>
         <v>177</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="4">
+        <f>[1]use_fish!$B178</f>
         <v>8</v>
       </c>
-      <c r="C178" s="16">
+      <c r="C178" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+      <c r="A179" s="3">
+        <f>[1]use_fish!$A179</f>
         <v>178</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="4">
+        <f>[1]use_fish!$B179</f>
         <v>9</v>
       </c>
-      <c r="C179" s="16">
+      <c r="C179" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+      <c r="A180" s="3">
+        <f>[1]use_fish!$A180</f>
         <v>179</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="4">
+        <f>[1]use_fish!$B180</f>
         <v>10</v>
       </c>
-      <c r="C180" s="16">
+      <c r="C180" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="14">
+      <c r="A181" s="3">
+        <f>[1]use_fish!$A181</f>
         <v>180</v>
       </c>
-      <c r="B181" s="15">
-        <v>35</v>
-      </c>
-      <c r="C181" s="16"/>
+      <c r="B181" s="4">
+        <f>[1]use_fish!$B181</f>
+        <v>36</v>
+      </c>
+      <c r="C181" s="8"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="14">
+      <c r="A182" s="3">
+        <f>[1]use_fish!$A182</f>
         <v>181</v>
       </c>
-      <c r="B182" s="15">
-        <v>35</v>
-      </c>
-      <c r="C182" s="16"/>
+      <c r="B182" s="4">
+        <f>[1]use_fish!$B182</f>
+        <v>36</v>
+      </c>
+      <c r="C182" s="8"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="14">
+      <c r="A183" s="3">
+        <f>[1]use_fish!$A183</f>
         <v>182</v>
       </c>
-      <c r="B183" s="15">
-        <v>35</v>
-      </c>
-      <c r="C183" s="16"/>
+      <c r="B183" s="4">
+        <f>[1]use_fish!$B183</f>
+        <v>36</v>
+      </c>
+      <c r="C183" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -2830,8 +2830,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -2187,24 +2187,15 @@
           <cell r="A181">
             <v>180</v>
           </cell>
-          <cell r="B181">
-            <v>36</v>
-          </cell>
         </row>
         <row r="182">
           <cell r="A182">
             <v>181</v>
           </cell>
-          <cell r="B182">
-            <v>36</v>
-          </cell>
         </row>
         <row r="183">
           <cell r="A183">
             <v>182</v>
-          </cell>
-          <cell r="B183">
-            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -2840,7 +2831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5358,8 +5349,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4">
-        <f>[1]use_fish!$B181</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181" s="8"/>
     </row>
@@ -5369,8 +5359,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4">
-        <f>[1]use_fish!$B182</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" s="8"/>
     </row>
@@ -5380,8 +5369,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="4">
-        <f>[1]use_fish!$B183</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C183" s="8"/>
     </row>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,9 +85,6 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +165,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -230,9 +221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,7 +2822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5296,12 +5284,10 @@
         <f>[1]use_fish!$B176</f>
         <v>6</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="6">
         <v>9</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
@@ -5312,12 +5298,10 @@
         <f>[1]use_fish!$B177</f>
         <v>7</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="6">
         <v>9</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
@@ -5328,12 +5312,10 @@
         <f>[1]use_fish!$B178</f>
         <v>8</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="6">
         <v>9</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
@@ -5344,12 +5326,10 @@
         <f>[1]use_fish!$B179</f>
         <v>9</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="6">
         <v>9</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
@@ -5360,12 +5340,10 @@
         <f>[1]use_fish!$B180</f>
         <v>10</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="6">
         <v>9</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
@@ -5375,10 +5353,8 @@
       <c r="B181" s="4">
         <v>35</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
@@ -5388,10 +5364,8 @@
       <c r="B182" s="4">
         <v>35</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
@@ -5401,10 +5375,8 @@
       <c r="B183" s="4">
         <v>35</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish_use_config.xlsx
+++ b/config_debug/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,9 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -2830,8 +2833,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5101,7 +5104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <f>[1]use_fish!$A161</f>
         <v>160</v>
@@ -5114,7 +5117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <f>[1]use_fish!$A162</f>
         <v>161</v>
@@ -5127,7 +5130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <f>[1]use_fish!$A163</f>
         <v>162</v>
@@ -5138,7 +5141,7 @@
       </c>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <f>[1]use_fish!$A164</f>
         <v>163</v>
@@ -5149,7 +5152,7 @@
       </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <f>[1]use_fish!$A165</f>
         <v>164</v>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <f>[1]use_fish!$A166</f>
         <v>165</v>
@@ -5170,7 +5173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <f>[1]use_fish!$A167</f>
         <v>166</v>
@@ -5180,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <f>[1]use_fish!$A168</f>
         <v>167</v>
@@ -5193,7 +5196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <f>[1]use_fish!$A169</f>
         <v>168</v>
@@ -5206,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <f>[1]use_fish!$A170</f>
         <v>169</v>
@@ -5218,8 +5221,9 @@
       <c r="C170" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <f>[1]use_fish!$A171</f>
         <v>170</v>
@@ -5231,8 +5235,9 @@
       <c r="C171" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <f>[1]use_fish!$A172</f>
         <v>171</v>
@@ -5244,8 +5249,9 @@
       <c r="C172" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <f>[1]use_fish!$A173</f>
         <v>172</v>
@@ -5255,8 +5261,9 @@
         <v>34</v>
       </c>
       <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <f>[1]use_fish!$A174</f>
         <v>173</v>
@@ -5266,8 +5273,9 @@
         <v>34</v>
       </c>
       <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <f>[1]use_fish!$A175</f>
         <v>174</v>
@@ -5277,8 +5285,9 @@
         <v>34</v>
       </c>
       <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <f>[1]use_fish!$A176</f>
         <v>175</v>
@@ -5290,8 +5299,11 @@
       <c r="C176" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <f>[1]use_fish!$A177</f>
         <v>176</v>
@@ -5303,8 +5315,11 @@
       <c r="C177" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <f>[1]use_fish!$A178</f>
         <v>177</v>
@@ -5316,8 +5331,11 @@
       <c r="C178" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <f>[1]use_fish!$A179</f>
         <v>178</v>
@@ -5329,8 +5347,11 @@
       <c r="C179" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <f>[1]use_fish!$A180</f>
         <v>179</v>
@@ -5342,8 +5363,11 @@
       <c r="C180" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <f>[1]use_fish!$A181</f>
         <v>180</v>
@@ -5352,8 +5376,11 @@
         <v>35</v>
       </c>
       <c r="C181" s="8"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <f>[1]use_fish!$A182</f>
         <v>181</v>
@@ -5362,8 +5389,11 @@
         <v>35</v>
       </c>
       <c r="C182" s="8"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <f>[1]use_fish!$A183</f>
         <v>182</v>
@@ -5372,6 +5402,9 @@
         <v>35</v>
       </c>
       <c r="C183" s="8"/>
+      <c r="D183" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
